--- a/data/trans_bre/P2A_ner_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_ner_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 9,92</t>
+          <t>2,24; 9,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 4,51</t>
+          <t>-7,76; 4,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 16,57</t>
+          <t>1,61; 18,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 7,48</t>
+          <t>-1,64; 7,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-81,31; 205,72</t>
+          <t>-83,01; 188,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 541,81</t>
+          <t>5,17; 592,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-46,4; 500,89</t>
+          <t>-37,34; 644,8</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,62</t>
+          <t>0,41; 4,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 3,87</t>
+          <t>-0,72; 4,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,69; 10,84</t>
+          <t>4,91; 10,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 1,61</t>
+          <t>-4,66; 1,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,28; 294,97</t>
+          <t>4,79; 290,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 158,76</t>
+          <t>-17,58; 170,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>104,89; 455,17</t>
+          <t>102,72; 459,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,54; 27,25</t>
+          <t>-47,38; 24,58</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 3,46</t>
+          <t>-0,21; 3,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,74</t>
+          <t>1,33; 4,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 7,36</t>
+          <t>2,84; 7,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 4,48</t>
+          <t>0,09; 4,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 156,65</t>
+          <t>-7,69; 149,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,15; 292,87</t>
+          <t>39,96; 293,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>55,08; 224,1</t>
+          <t>54,89; 222,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 108,66</t>
+          <t>-0,01; 104,42</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 3,37</t>
+          <t>-0,84; 3,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,42</t>
+          <t>0,7; 4,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 8,85</t>
+          <t>3,48; 8,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 40,93</t>
+          <t>0,56; 39,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 132,23</t>
+          <t>-17,92; 134,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,99; 300,54</t>
+          <t>21,15; 355,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>66,78; 266,88</t>
+          <t>57,21; 271,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,94; 927,88</t>
+          <t>8,23; 877,81</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 3,43</t>
+          <t>0,31; 3,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,7</t>
+          <t>-1,08; 2,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,55; 9,93</t>
+          <t>4,85; 9,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 2,47</t>
+          <t>-1,8; 2,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,17; 199,69</t>
+          <t>9,21; 202,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,42; 90,23</t>
+          <t>-23,4; 87,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>65,01; 220,08</t>
+          <t>73,55; 244,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-24,24; 44,77</t>
+          <t>-22,41; 46,19</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,73</t>
+          <t>0,94; 2,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,8</t>
+          <t>0,95; 2,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,15; 7,76</t>
+          <t>5,11; 7,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,6; 13,02</t>
+          <t>0,67; 13,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,98; 117,4</t>
+          <t>29,92; 119,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,95; 104,27</t>
+          <t>26,41; 108,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>100,32; 190,45</t>
+          <t>101,07; 195,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,85; 225,91</t>
+          <t>9,67; 224,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_ner_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_ner_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,75</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>135,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-22,62%</t>
+          <t>27,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>140,17%</t>
+          <t>202,4%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>85,9%</t>
+          <t>-6,97%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 9,39</t>
+          <t>0,98; 4,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 4,74</t>
+          <t>-1,14; 3,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 18,01</t>
+          <t>5,1; 10,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 7,91</t>
+          <t>-2,43; 1,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,88; 361,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-83,01; 188,75</t>
+          <t>-22,51; 116,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,17; 592,16</t>
+          <t>93,97; 380,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-37,34; 644,8</t>
+          <t>-45,74; 53,76</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,85</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>50,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>44,94%</t>
+          <t>135,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>226,34%</t>
+          <t>124,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-18,14%</t>
+          <t>124,8%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,49</t>
+          <t>-0,29; 3,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 4,04</t>
+          <t>1,33; 4,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 10,98</t>
+          <t>2,84; 7,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 1,37</t>
+          <t>1,28; 4,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,79; 290,33</t>
+          <t>-9,05; 144,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 170,18</t>
+          <t>39,96; 293,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>102,72; 459,05</t>
+          <t>54,89; 222,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,38; 24,58</t>
+          <t>37,93; 335,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>22,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>52,63%</t>
+          <t>33,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>135,07%</t>
+          <t>108,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>124,66%</t>
+          <t>138,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>45,28%</t>
+          <t>658,7%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 3,26</t>
+          <t>-0,84; 3,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,77</t>
+          <t>0,7; 4,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 7,36</t>
+          <t>3,48; 8,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 4,35</t>
+          <t>0,87; 56,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 149,25</t>
+          <t>-17,92; 134,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,96; 293,71</t>
+          <t>21,15; 355,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>54,89; 222,53</t>
+          <t>57,21; 271,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 104,42</t>
+          <t>26,29; 2614,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,15</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>75,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>108,18%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>138,88%</t>
+          <t>131,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>220,44%</t>
+          <t>9,4%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 3,3</t>
+          <t>0,31; 3,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,7</t>
+          <t>-1,08; 2,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 8,96</t>
+          <t>4,85; 9,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 39,61</t>
+          <t>-1,62; 2,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 134,0</t>
+          <t>9,21; 202,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,15; 355,06</t>
+          <t>-23,4; 87,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>57,21; 271,18</t>
+          <t>73,55; 244,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,23; 877,81</t>
+          <t>-31,76; 71,75</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>75,27%</t>
+          <t>65,25%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>60,69%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>131,47%</t>
+          <t>144,32%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>199,66%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,47</t>
+          <t>0,94; 2,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,64</t>
+          <t>0,95; 2,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,85; 9,99</t>
+          <t>5,11; 7,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 2,57</t>
+          <t>0,92; 22,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,21; 202,01</t>
+          <t>28,71; 116,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,4; 87,48</t>
+          <t>26,41; 108,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>73,55; 244,67</t>
+          <t>101,07; 195,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-22,41; 46,19</t>
+          <t>27,07; 857,9</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,81</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,51</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,69</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>66,06%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>60,69%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>144,32%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>60,02%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 2,82</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 2,86</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,11; 7,78</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,67; 13,16</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>29,92; 119,21</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>26,41; 108,82</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>101,07; 195,68</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>9,67; 224,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P2A_ner_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_ner_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,81</t>
+          <t>1,0; 4,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 3,34</t>
+          <t>-1,11; 3,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,1; 10,83</t>
+          <t>5,08; 10,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 1,66</t>
+          <t>-2,52; 1,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,88; 361,05</t>
+          <t>28,84; 336,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,51; 116,31</t>
+          <t>-24,47; 110,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,97; 380,13</t>
+          <t>97,2; 379,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-45,74; 53,76</t>
+          <t>-46,76; 50,15</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,28</t>
+          <t>-0,2; 3,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,77</t>
+          <t>1,3; 4,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 7,36</t>
+          <t>2,76; 7,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,62</t>
+          <t>1,19; 4,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 144,74</t>
+          <t>-8,06; 147,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,96; 293,71</t>
+          <t>40,0; 277,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>54,89; 222,53</t>
+          <t>52,38; 222,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>37,93; 335,07</t>
+          <t>35,15; 366,92</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 3,3</t>
+          <t>-0,84; 3,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,7</t>
+          <t>0,42; 4,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 8,96</t>
+          <t>3,13; 9,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 56,63</t>
+          <t>0,79; 54,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 134,0</t>
+          <t>-20,83; 123,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,15; 355,06</t>
+          <t>10,6; 311,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>57,21; 271,18</t>
+          <t>57,84; 271,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,29; 2614,29</t>
+          <t>19,54; 2190,09</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,47</t>
+          <t>0,37; 3,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,64</t>
+          <t>-1,23; 2,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 9,99</t>
+          <t>4,49; 9,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,06</t>
+          <t>-1,56; 2,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,21; 202,01</t>
+          <t>7,1; 185,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,4; 87,48</t>
+          <t>-25,06; 92,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>73,55; 244,67</t>
+          <t>67,51; 228,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 71,75</t>
+          <t>-30,7; 73,55</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,79</t>
+          <t>0,8; 2,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,86</t>
+          <t>0,98; 2,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,11; 7,78</t>
+          <t>5,18; 7,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 22,73</t>
+          <t>0,88; 23,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,71; 116,58</t>
+          <t>24,12; 112,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,41; 108,82</t>
+          <t>26,38; 109,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>101,07; 195,68</t>
+          <t>102,14; 197,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,07; 857,9</t>
+          <t>24,67; 863,0</t>
         </is>
       </c>
     </row>
